--- a/biology/Botanique/Carduus/Carduus.xlsx
+++ b/biology/Botanique/Carduus/Carduus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chardon
 Le genre Carduus (les « vrais » chardons) regroupe plusieurs plantes épineuses de la famille des Astéracées (ou Composées). Ce genre est très proche des cirses (genre Cirsium) avec lesquels la différence n'est pas toujours facile à faire.
-Ils s'en distinguent essentiellement par les aigrettes de leurs fruits, appelées aussi pappus : les chardons ont un pappus formé de poils simples ou denticulés, tandis que les cirses ont un pappus de poils plumeux[1].
+Ils s'en distinguent essentiellement par les aigrettes de leurs fruits, appelées aussi pappus : les chardons ont un pappus formé de poils simples ou denticulés, tandis que les cirses ont un pappus de poils plumeux.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Principales espèces (France)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carduus acanthoides L.
 Carduus acicularis Bertol.
@@ -562,7 +576,9 @@
           <t>Espèce endémique espagnole</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carduus rivasgodayanus Devesa et Talavera</t>
         </is>
